--- a/WebUI/Uploads/Ручное заполнение.xlsx
+++ b/WebUI/Uploads/Ручное заполнение.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Керабуд</t>
   </si>
@@ -30,9 +30,6 @@
     <t>М-квадрат</t>
   </si>
   <si>
-    <t>Всего</t>
-  </si>
-  <si>
     <t>Заполнено цен</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Нету некоторых цен</t>
   </si>
   <si>
-    <t>Категории</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Euro-Ceramics</t>
   </si>
   <si>
-    <t>Колонку артикул привести к нормальному виду</t>
-  </si>
-  <si>
     <t>Azori</t>
   </si>
   <si>
@@ -79,6 +70,31 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>В коллекциях описаний мало</t>
+  </si>
+  <si>
+    <t>Коллекции</t>
+  </si>
+  <si>
+    <t>Скачать картинки на коллекции с сайта производителя. Именовать их как LBCtgs_collection_1.jpg
+Например, коллекция Азур. Картинки будут: LBCtgs_Azur.jpg, LBCtgs_Azur_1.jpg</t>
+  </si>
+  <si>
+    <t>812metrov</t>
+  </si>
+  <si>
+    <t>Во всех файлах категорий проставить применение(универсал/для кухни/для ванной)</t>
+  </si>
+  <si>
+    <t>Проблема аналогичная Керабуд, некоторые размеры не совпадают с действительностью</t>
+  </si>
+  <si>
+    <t>Загружено</t>
+  </si>
+  <si>
+    <t>Не загружено</t>
   </si>
 </sst>
 </file>
@@ -139,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,7 +164,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,51 +458,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="30">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,27 +520,28 @@
       <c r="D2" s="1">
         <v>111</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="30">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>321</v>
@@ -528,92 +549,112 @@
       <c r="D3" s="1">
         <v>106</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="105">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>373</v>
-      </c>
-      <c r="D4" s="3">
-        <v>335</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="C4" s="1">
+        <v>328</v>
+      </c>
+      <c r="D4" s="1">
+        <v>304</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="45">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>493</v>
+      </c>
+      <c r="D6" s="1">
+        <v>427</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -628,9 +669,12 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -644,8 +688,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -660,8 +705,9 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -676,8 +722,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -692,8 +739,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -708,8 +756,9 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -724,8 +773,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -740,8 +790,9 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -756,8 +807,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -772,8 +824,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -788,8 +841,9 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -804,8 +858,9 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -820,8 +875,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -836,8 +892,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -852,6 +909,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,6 +919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -874,6 +933,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
